--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Col1a1-Itga2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Col1a1-Itga2.xlsx
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>10.379369</v>
+        <v>1.120168333333333</v>
       </c>
       <c r="H2">
-        <v>31.138107</v>
+        <v>3.360505</v>
       </c>
       <c r="I2">
-        <v>0.01614698522449884</v>
+        <v>0.001768092629909379</v>
       </c>
       <c r="J2">
-        <v>0.01614698522449883</v>
+        <v>0.001768092629909379</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>1.888921</v>
+        <v>0.229822</v>
       </c>
       <c r="N2">
-        <v>5.666763</v>
+        <v>0.689466</v>
       </c>
       <c r="O2">
-        <v>0.4551532417350329</v>
+        <v>0.09226175421862418</v>
       </c>
       <c r="P2">
-        <v>0.4551532417350329</v>
+        <v>0.09226175421862419</v>
       </c>
       <c r="Q2">
-        <v>19.605808070849</v>
+        <v>0.2574393267033333</v>
       </c>
       <c r="R2">
-        <v>176.452272637641</v>
+        <v>2.31695394033</v>
       </c>
       <c r="S2">
-        <v>0.007349352669178323</v>
+        <v>0.0001631273276564599</v>
       </c>
       <c r="T2">
-        <v>0.007349352669178321</v>
+        <v>0.0001631273276564599</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>10.379369</v>
+        <v>1.120168333333333</v>
       </c>
       <c r="H3">
-        <v>31.138107</v>
+        <v>3.360505</v>
       </c>
       <c r="I3">
-        <v>0.01614698522449884</v>
+        <v>0.001768092629909379</v>
       </c>
       <c r="J3">
-        <v>0.01614698522449883</v>
+        <v>0.001768092629909379</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>3.261295</v>
       </c>
       <c r="O3">
-        <v>0.2619465454094788</v>
+        <v>0.4364142651333466</v>
       </c>
       <c r="P3">
-        <v>0.2619465454094788</v>
+        <v>0.4364142651333466</v>
       </c>
       <c r="Q3">
-        <v>11.28339474095167</v>
+        <v>1.217733128219444</v>
       </c>
       <c r="R3">
-        <v>101.550552668565</v>
+        <v>10.959598153975</v>
       </c>
       <c r="S3">
-        <v>0.004229646998335368</v>
+        <v>0.0007716208457695876</v>
       </c>
       <c r="T3">
-        <v>0.004229646998335366</v>
+        <v>0.0007716208457695876</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>10.379369</v>
+        <v>1.120168333333333</v>
       </c>
       <c r="H4">
-        <v>31.138107</v>
+        <v>3.360505</v>
       </c>
       <c r="I4">
-        <v>0.01614698522449884</v>
+        <v>0.001768092629909379</v>
       </c>
       <c r="J4">
-        <v>0.01614698522449883</v>
+        <v>0.001768092629909379</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.174057666666667</v>
+        <v>1.174057666666666</v>
       </c>
       <c r="N4">
         <v>3.522173</v>
       </c>
       <c r="O4">
-        <v>0.2829002128554884</v>
+        <v>0.4713239806480292</v>
       </c>
       <c r="P4">
-        <v>0.2829002128554884</v>
+        <v>0.4713239806480293</v>
       </c>
       <c r="Q4">
-        <v>12.18597774961233</v>
+        <v>1.315142219707222</v>
       </c>
       <c r="R4">
-        <v>109.673799746511</v>
+        <v>11.836279977365</v>
       </c>
       <c r="S4">
-        <v>0.004567985556985146</v>
+        <v>0.000833344456483331</v>
       </c>
       <c r="T4">
-        <v>0.004567985556985146</v>
+        <v>0.0008333444564833312</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>1812.093628</v>
       </c>
       <c r="I5">
-        <v>0.9396797639857967</v>
+        <v>0.9534130698726969</v>
       </c>
       <c r="J5">
-        <v>0.9396797639857967</v>
+        <v>0.9534130698726969</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>1.888921</v>
+        <v>0.229822</v>
       </c>
       <c r="N5">
-        <v>5.666763</v>
+        <v>0.689466</v>
       </c>
       <c r="O5">
-        <v>0.4551532417350329</v>
+        <v>0.09226175421862418</v>
       </c>
       <c r="P5">
-        <v>0.4551532417350329</v>
+        <v>0.09226175421862419</v>
       </c>
       <c r="Q5">
-        <v>1140.967235965129</v>
+        <v>138.8196605914053</v>
       </c>
       <c r="R5">
-        <v>10268.70512368616</v>
+        <v>1249.376945322648</v>
       </c>
       <c r="S5">
-        <v>0.427698290770946</v>
+        <v>0.08796356232141872</v>
       </c>
       <c r="T5">
-        <v>0.427698290770946</v>
+        <v>0.08796356232141873</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>1812.093628</v>
       </c>
       <c r="I6">
-        <v>0.9396797639857967</v>
+        <v>0.9534130698726969</v>
       </c>
       <c r="J6">
-        <v>0.9396797639857967</v>
+        <v>0.9534130698726969</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>3.261295</v>
       </c>
       <c r="O6">
-        <v>0.2619465454094788</v>
+        <v>0.4364142651333466</v>
       </c>
       <c r="P6">
-        <v>0.2619465454094788</v>
+        <v>0.4364142651333466</v>
       </c>
       <c r="Q6">
-        <v>656.6413209475845</v>
+        <v>656.6413209475844</v>
       </c>
       <c r="R6">
-        <v>5909.771888528261</v>
+        <v>5909.771888528259</v>
       </c>
       <c r="S6">
-        <v>0.2461458679672738</v>
+        <v>0.416083064257021</v>
       </c>
       <c r="T6">
-        <v>0.2461458679672738</v>
+        <v>0.416083064257021</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>1812.093628</v>
       </c>
       <c r="I7">
-        <v>0.9396797639857967</v>
+        <v>0.9534130698726969</v>
       </c>
       <c r="J7">
-        <v>0.9396797639857967</v>
+        <v>0.9534130698726969</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.174057666666667</v>
+        <v>1.174057666666666</v>
       </c>
       <c r="N7">
         <v>3.522173</v>
       </c>
       <c r="O7">
-        <v>0.2829002128554884</v>
+        <v>0.4713239806480292</v>
       </c>
       <c r="P7">
-        <v>0.2829002128554884</v>
+        <v>0.4713239806480293</v>
       </c>
       <c r="Q7">
-        <v>709.1674722237382</v>
+        <v>709.1674722237381</v>
       </c>
       <c r="R7">
         <v>6382.507250013644</v>
       </c>
       <c r="S7">
-        <v>0.265835605247577</v>
+        <v>0.4493664432942571</v>
       </c>
       <c r="T7">
-        <v>0.265835605247577</v>
+        <v>0.4493664432942572</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,43 +909,43 @@
         <v>28.39480333333333</v>
       </c>
       <c r="H8">
-        <v>85.18440999999999</v>
+        <v>85.18441</v>
       </c>
       <c r="I8">
-        <v>0.04417325078970441</v>
+        <v>0.04481883749739363</v>
       </c>
       <c r="J8">
-        <v>0.04417325078970441</v>
+        <v>0.04481883749739363</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>1.888921</v>
+        <v>0.229822</v>
       </c>
       <c r="N8">
-        <v>5.666763</v>
+        <v>0.689466</v>
       </c>
       <c r="O8">
-        <v>0.4551532417350329</v>
+        <v>0.09226175421862418</v>
       </c>
       <c r="P8">
-        <v>0.4551532417350329</v>
+        <v>0.09226175421862419</v>
       </c>
       <c r="Q8">
-        <v>53.63554030720333</v>
+        <v>6.525750491673333</v>
       </c>
       <c r="R8">
-        <v>482.7198627648299</v>
+        <v>58.73175442506</v>
       </c>
       <c r="S8">
-        <v>0.02010559829490857</v>
+        <v>0.004135064569548988</v>
       </c>
       <c r="T8">
-        <v>0.02010559829490857</v>
+        <v>0.004135064569548989</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,13 +971,13 @@
         <v>28.39480333333333</v>
       </c>
       <c r="H9">
-        <v>85.18440999999999</v>
+        <v>85.18441</v>
       </c>
       <c r="I9">
-        <v>0.04417325078970441</v>
+        <v>0.04481883749739363</v>
       </c>
       <c r="J9">
-        <v>0.04417325078970441</v>
+        <v>0.04481883749739363</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>3.261295</v>
       </c>
       <c r="O9">
-        <v>0.2619465454094788</v>
+        <v>0.4364142651333466</v>
       </c>
       <c r="P9">
-        <v>0.2619465454094788</v>
+        <v>0.4364142651333466</v>
       </c>
       <c r="Q9">
         <v>30.86794337899444</v>
       </c>
       <c r="R9">
-        <v>277.81149041095</v>
+        <v>277.8114904109499</v>
       </c>
       <c r="S9">
-        <v>0.0115710304438696</v>
+        <v>0.01955958003055592</v>
       </c>
       <c r="T9">
-        <v>0.0115710304438696</v>
+        <v>0.01955958003055592</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,13 +1033,13 @@
         <v>28.39480333333333</v>
       </c>
       <c r="H10">
-        <v>85.18440999999999</v>
+        <v>85.18441</v>
       </c>
       <c r="I10">
-        <v>0.04417325078970441</v>
+        <v>0.04481883749739363</v>
       </c>
       <c r="J10">
-        <v>0.04417325078970441</v>
+        <v>0.04481883749739363</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.174057666666667</v>
+        <v>1.174057666666666</v>
       </c>
       <c r="N10">
         <v>3.522173</v>
       </c>
       <c r="O10">
-        <v>0.2829002128554884</v>
+        <v>0.4713239806480292</v>
       </c>
       <c r="P10">
-        <v>0.2829002128554884</v>
+        <v>0.4713239806480293</v>
       </c>
       <c r="Q10">
-        <v>33.33713654699222</v>
+        <v>33.33713654699221</v>
       </c>
       <c r="R10">
         <v>300.03422892293</v>
       </c>
       <c r="S10">
-        <v>0.01249662205092625</v>
+        <v>0.02112419289728872</v>
       </c>
       <c r="T10">
-        <v>0.01249662205092625</v>
+        <v>0.02112419289728873</v>
       </c>
     </row>
   </sheetData>
